--- a/biology/Botanique/Atractocarpus_pancherianus/Atractocarpus_pancherianus.xlsx
+++ b/biology/Botanique/Atractocarpus_pancherianus/Atractocarpus_pancherianus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Atractocarpus pancherianus est une espèce de plantes de la famille des Rubiaceae endémique à la Nouvelle-Calédonie et protégée.
 </t>
@@ -513,14 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aspect général
-L'espèce se présente comme un petit arbre (4 à 5 m) à la cime dense[2].
-Feuilles
-Les feuilles se caractérisent par une nervure jaune très visible.
-Fleurs
-Les fleurs sont blanches.
-Fruits
-Les fruits sont vert pâle[2] et contiennent quelques dizaines de graines.
+          <t>Aspect général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce se présente comme un petit arbre (4 à 5 m) à la cime dense.
 </t>
         </is>
       </c>
@@ -546,12 +557,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Répartition</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cette espèce, endémique à la Nouvelle-Calédonie, se développe dans les forêts sèches sur un sol schisteux[2].
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles se caractérisent par une nervure jaune très visible.
 </t>
         </is>
       </c>
@@ -577,10 +594,119 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont blanches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Atractocarpus_pancherianus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Atractocarpus_pancherianus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fruits sont vert pâle et contiennent quelques dizaines de graines.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Atractocarpus_pancherianus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Atractocarpus_pancherianus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce, endémique à la Nouvelle-Calédonie, se développe dans les forêts sèches sur un sol schisteux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Atractocarpus_pancherianus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Atractocarpus_pancherianus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>A. Guillaumin, « Révision des Rubiacées de la Nouvelle-Calédonie », Archives de Botanique, Mémoires, vol. 3, no 5,‎ 1929, p. 10 (ISSN 1248-4350, lire en ligne)</t>
         </is>
